--- a/Hardware/Alvaro-BOM.xlsx
+++ b/Hardware/Alvaro-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Alvaro\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1AA45-CEE9-450C-9C87-B3E787E81C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70050775-F2F2-4BAE-8346-F3655374776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="30960" windowHeight="14256" xr2:uid="{5CEEA534-026F-4018-A2AF-738414BC7216}"/>
+    <workbookView xWindow="5724" yWindow="2424" windowWidth="30960" windowHeight="14256" xr2:uid="{5CEEA534-026F-4018-A2AF-738414BC7216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Schottky</t>
   </si>
   <si>
-    <t>SOD-323</t>
-  </si>
-  <si>
     <t>&lt;.5VF</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>16MHz</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,10 +608,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -633,16 +633,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -650,16 +650,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -667,16 +667,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -684,16 +684,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -701,16 +701,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
       <c r="E12">
         <v>1</v>

--- a/Hardware/Alvaro-BOM.xlsx
+++ b/Hardware/Alvaro-BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Alvaro\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70050775-F2F2-4BAE-8346-F3655374776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641594D-1F4A-477D-8EA0-8E89DBD8C1A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5724" yWindow="2424" windowWidth="30960" windowHeight="14256" xr2:uid="{5CEEA534-026F-4018-A2AF-738414BC7216}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Component</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>SOD-123</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>500mA</t>
   </si>
 </sst>
 </file>
@@ -502,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52241DF-7EEB-44E9-9401-32DD3160B3DC}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,13 +631,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -633,24 +648,21 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -659,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -667,7 +679,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -676,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -684,40 +696,54 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
@@ -760,6 +786,9 @@
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware/Alvaro-BOM.xlsx
+++ b/Hardware/Alvaro-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Alvaro\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641594D-1F4A-477D-8EA0-8E89DBD8C1A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A7124E-D1C9-4565-953D-F3BC001C000F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5724" yWindow="2424" windowWidth="30960" windowHeight="14256" xr2:uid="{5CEEA534-026F-4018-A2AF-738414BC7216}"/>
   </bookViews>
@@ -152,10 +152,10 @@
     <t>Polyfuse</t>
   </si>
   <si>
-    <t>0805</t>
-  </si>
-  <si>
     <t>500mA</t>
+  </si>
+  <si>
+    <t>1206</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,10 +637,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
       </c>
       <c r="E7">
         <v>1</v>
